--- a/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>DOCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E8" s="3">
         <v>87500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>76900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>69300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>65300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>61900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E9" s="3">
         <v>38600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>34700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>33000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E10" s="3">
         <v>48900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E12" s="3">
         <v>20700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,28 +887,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -899,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E17" s="3">
         <v>86100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>87900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>75100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>85300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>75600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>73000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>68300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,42 +1042,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>20900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -1067,95 +1104,107 @@
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>13600</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3">
         <v>9400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>560100</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>28900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,66 +1745,75 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>18300</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+        <v>607300</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>242700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>37200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
+        <v>893300</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>15100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,66 +2157,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>30900</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+        <v>46000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
+        <v>48200</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-170400</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>845100</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>21000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>19800</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-23700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>463600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>459700</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>103800</v>
+      </c>
+      <c r="F8" s="3">
         <v>93700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>87500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>81200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>76900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>72800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>69300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>65300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>61900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F9" s="3">
         <v>39500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>38600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>37100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>35200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>34700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>33000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>30900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>29900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F10" s="3">
         <v>54200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>48900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>44100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>41700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>38100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>36300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>34400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>32000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +852,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F12" s="3">
         <v>22400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>20700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>19700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>15100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>19500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>15300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,40 +924,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>106400</v>
+      </c>
+      <c r="F17" s="3">
         <v>93800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>86100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>87900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>75100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>85300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>75600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>73000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>68300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,52 +1109,60 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4100</v>
       </c>
       <c r="H20" s="3">
         <v>-3700</v>
       </c>
       <c r="I20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K20" s="3">
         <v>6300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F21" s="3">
         <v>20900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1107,104 +1181,128 @@
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>13600</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3">
         <v>9400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-10300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-16200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-16900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4100</v>
       </c>
       <c r="H32" s="3">
         <v>3700</v>
       </c>
       <c r="I32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-16900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-10600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-16900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-10600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,20 +1792,22 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>589800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>577200</v>
+      </c>
+      <c r="F41" s="3">
         <v>560100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1646,14 +1820,20 @@
       <c r="J41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,20 +1864,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F43" s="3">
         <v>28900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1710,14 +1896,20 @@
       <c r="J43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,20 +1940,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F45" s="3">
         <v>18300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1774,26 +1972,32 @@
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>642800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>629100</v>
+      </c>
+      <c r="F46" s="3">
         <v>607300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1806,14 +2010,20 @@
       <c r="J46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,20 +2054,26 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>241100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>243100</v>
+      </c>
+      <c r="F48" s="3">
         <v>242700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1870,25 +2086,31 @@
       <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E49" s="3">
         <v>37200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
+      <c r="F49" s="3">
+        <v>37200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>10</v>
@@ -1902,14 +2124,20 @@
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,20 +2206,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1998,14 +2238,20 @@
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,20 +2282,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>965800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>915400</v>
+      </c>
+      <c r="F54" s="3">
         <v>893300</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2062,14 +2314,20 @@
       <c r="J54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,20 +2356,22 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F57" s="3">
         <v>15100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2122,14 +2384,20 @@
       <c r="J57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,20 +2428,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F59" s="3">
         <v>30900</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2186,26 +2460,32 @@
       <c r="J59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F60" s="3">
         <v>46000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2218,14 +2498,20 @@
       <c r="J60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,20 +2542,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2282,14 +2574,20 @@
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,20 +2694,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>57300</v>
+      </c>
+      <c r="F66" s="3">
         <v>48200</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2410,14 +2726,20 @@
       <c r="J66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,20 +2900,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-174400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-172600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-170400</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2584,14 +2932,20 @@
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,20 +3052,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>906400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>858100</v>
+      </c>
+      <c r="F76" s="3">
         <v>845100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>10</v>
       </c>
@@ -2712,14 +3084,20 @@
       <c r="J76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-16900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-10600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,20 +3229,22 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F83" s="3">
         <v>21000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>10</v>
       </c>
@@ -2859,14 +3257,20 @@
       <c r="J83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,20 +3453,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F89" s="3">
         <v>19800</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3051,14 +3485,20 @@
       <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,20 +3511,22 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3097,14 +3539,20 @@
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,20 +3621,26 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-23700</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>10</v>
       </c>
@@ -3193,14 +3653,20 @@
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,20 +3827,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F100" s="3">
         <v>463600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>10</v>
       </c>
@@ -3367,14 +3859,20 @@
       <c r="J100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,20 +3903,26 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F102" s="3">
         <v>459700</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>10</v>
       </c>
@@ -3431,10 +3935,16 @@
       <c r="J102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E8" s="3">
         <v>111400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>103800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>93700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>87500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>76900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>72800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>65300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E9" s="3">
         <v>43500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>38600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>34700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E10" s="3">
         <v>67900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>60700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>54200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>48900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>34400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E12" s="3">
         <v>29900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -942,25 +961,25 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -968,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129800</v>
+      </c>
+      <c r="E17" s="3">
         <v>113100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>106400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>93800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>86100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>87900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>75100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>85300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>73000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,61 +1143,65 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E21" s="3">
         <v>20600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1187,122 +1223,134 @@
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
         <v>9400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,23 +1879,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1713400</v>
+      </c>
+      <c r="E41" s="3">
         <v>589800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>577200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>560100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1826,14 +1912,17 @@
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,23 +1959,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E43" s="3">
         <v>42600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1902,14 +1994,17 @@
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,23 +2041,26 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1978,29 +2076,32 @@
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1770100</v>
+      </c>
+      <c r="E46" s="3">
         <v>642800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>629100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>607300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2016,14 +2117,17 @@
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,23 +2164,26 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>249600</v>
+      </c>
+      <c r="E48" s="3">
         <v>241100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>243100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>242700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2092,28 +2199,31 @@
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E49" s="3">
         <v>75400</v>
-      </c>
-      <c r="E49" s="3">
-        <v>37200</v>
       </c>
       <c r="F49" s="3">
         <v>37200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
+      <c r="G49" s="3">
+        <v>37200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -2130,14 +2240,17 @@
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,23 +2328,26 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>6500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2244,14 +2363,17 @@
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,23 +2410,26 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E54" s="3">
         <v>965800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>915400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>893300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2320,14 +2445,17 @@
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
+      <c r="M54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2367,14 +2497,14 @@
         <v>12700</v>
       </c>
       <c r="E57" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F57" s="3">
         <v>16200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2390,14 +2520,17 @@
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,23 +2567,26 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E59" s="3">
         <v>44900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2466,29 +2602,32 @@
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E60" s="3">
         <v>57600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2504,19 +2643,22 @@
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1462700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2548,23 +2690,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2580,14 +2725,17 @@
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,23 +2854,26 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1522800</v>
+      </c>
+      <c r="E66" s="3">
         <v>59400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2732,14 +2889,17 @@
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
+      <c r="M66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,23 +3076,26 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-186500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-174400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-172600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-170400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2938,14 +3111,17 @@
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,23 +3240,26 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>578200</v>
+      </c>
+      <c r="E76" s="3">
         <v>906400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>858100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>845100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3090,14 +3275,17 @@
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
+      <c r="M76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,23 +3428,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E83" s="3">
         <v>22400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3263,14 +3461,17 @@
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,23 +3672,26 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E89" s="3">
         <v>40200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3491,14 +3707,17 @@
       <c r="L89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,23 +3732,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3545,14 +3765,17 @@
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,23 +3853,26 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23700</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
       </c>
@@ -3659,14 +3888,17 @@
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,23 +4075,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1123100</v>
+      </c>
+      <c r="E100" s="3">
         <v>3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>463600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>10</v>
       </c>
@@ -3865,14 +4110,17 @@
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,23 +4157,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1123400</v>
+      </c>
+      <c r="E102" s="3">
         <v>12500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>459700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>10</v>
       </c>
@@ -3941,10 +4192,13 @@
       <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>DOCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E8" s="3">
         <v>119700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>111400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>103800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>93700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>87500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>72800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>69300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>65300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>61900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E9" s="3">
         <v>44400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>38600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E10" s="3">
         <v>75300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>67900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>54200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>48900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>34400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E12" s="3">
         <v>36200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,13 +966,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -964,25 +984,25 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E17" s="3">
         <v>129800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>113100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>106400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>93800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>86100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>87900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>75100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>85300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,67 +1177,71 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E21" s="3">
         <v>13300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1226,131 +1263,143 @@
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13600</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3">
         <v>9400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,26 +1966,27 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>464800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1713400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>589800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>577200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>560100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1915,37 +2002,40 @@
       <c r="M41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>1090400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1962,26 +2052,29 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E43" s="3">
         <v>39600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1997,14 +2090,17 @@
       <c r="M43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,26 +2140,29 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E45" s="3">
         <v>17100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2079,32 +2178,35 @@
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1611900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1770100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>642800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>629100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>607300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2120,14 +2222,17 @@
       <c r="M46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,26 +2272,29 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>259400</v>
+      </c>
+      <c r="E48" s="3">
         <v>249600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>241100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>243100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>242700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2202,31 +2310,34 @@
       <c r="M48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E49" s="3">
         <v>75100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>37200</v>
       </c>
       <c r="G49" s="3">
         <v>37200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
+      <c r="H49" s="3">
+        <v>37200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>10</v>
@@ -2243,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,26 +2448,29 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2366,14 +2486,17 @@
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,26 +2536,29 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1956800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2101000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>965800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>915400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>893300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2448,14 +2574,17 @@
       <c r="M54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
+      <c r="N54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,26 +2618,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12700</v>
+        <v>16300</v>
       </c>
       <c r="E57" s="3">
         <v>12700</v>
       </c>
       <c r="F57" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G57" s="3">
         <v>16200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2523,14 +2654,17 @@
       <c r="M57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,26 +2704,29 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E59" s="3">
         <v>45600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2605,32 +2742,35 @@
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E60" s="3">
         <v>58200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2646,23 +2786,26 @@
       <c r="M60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
+      <c r="N60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1464500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1462700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2693,26 +2836,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2728,14 +2874,17 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,26 +3012,29 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1529000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1522800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>48200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2892,14 +3050,17 @@
       <c r="M66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
+      <c r="N66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,26 +3250,29 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-204700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-186500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-174400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-172600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-170400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3114,14 +3288,17 @@
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,26 +3426,29 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>427800</v>
+      </c>
+      <c r="E76" s="3">
         <v>578200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>906400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>858100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>845100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3278,14 +3464,17 @@
       <c r="M76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
+      <c r="N76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,26 +3627,27 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E83" s="3">
         <v>23500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3464,14 +3663,17 @@
       <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,26 +3889,29 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E89" s="3">
         <v>32700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3710,14 +3927,17 @@
       <c r="M89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,26 +3953,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3768,14 +3989,17 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,26 +4083,29 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1121000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23700</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>10</v>
       </c>
@@ -3891,14 +4121,17 @@
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,26 +4321,29 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-157900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1123100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>463600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4113,14 +4359,17 @@
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,26 +4409,29 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1248600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1123400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>459700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4195,10 +4447,13 @@
       <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E8" s="3">
         <v>127300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>119700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>111400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>93700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>87500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>72800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>61900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E9" s="3">
         <v>46800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E10" s="3">
         <v>80500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>75300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>67900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>54200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>48900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>44100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E12" s="3">
         <v>37200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,17 +986,20 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -987,25 +1007,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E17" s="3">
         <v>140900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>113100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>106400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>93800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>86100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>87900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>85300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>73000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>68300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,73 +1211,77 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E21" s="3">
         <v>11200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,131 +1315,140 @@
         <v>2100</v>
       </c>
       <c r="E22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F22" s="3">
         <v>1100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13600</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3">
         <v>9400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,29 +2053,30 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E41" s="3">
         <v>464800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1713400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>589800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>577200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>560100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2005,23 +2092,26 @@
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1090400</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2037,8 +2127,8 @@
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2055,29 +2145,32 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E43" s="3">
         <v>42500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28900</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2093,14 +2186,17 @@
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,29 +2239,32 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2181,35 +2280,38 @@
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1231100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1611900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1770100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>642800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>629100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>607300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2225,14 +2327,17 @@
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,29 +2380,32 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>268400</v>
+      </c>
+      <c r="E48" s="3">
         <v>259400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>249600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>241100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>243100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>242700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2313,34 +2421,37 @@
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E49" s="3">
         <v>78600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>75400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>37200</v>
       </c>
       <c r="H49" s="3">
         <v>37200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
+      <c r="I49" s="3">
+        <v>37200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>10</v>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,29 +2568,32 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E52" s="3">
         <v>6900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2489,14 +2609,17 @@
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,29 +2662,32 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1590700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1956800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2101000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>965800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>915400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>893300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2577,14 +2703,17 @@
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
+      <c r="O54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,29 +2749,30 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E57" s="3">
         <v>16300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>12700</v>
       </c>
       <c r="F57" s="3">
         <v>12700</v>
       </c>
       <c r="G57" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H57" s="3">
         <v>16200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2657,14 +2788,17 @@
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,29 +2841,32 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E59" s="3">
         <v>46100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2745,35 +2882,38 @@
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E60" s="3">
         <v>62500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>58200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2789,26 +2929,29 @@
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
+      <c r="O60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1466500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1464500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1462700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2839,29 +2982,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2877,14 +3023,17 @@
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,29 +3170,32 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1542400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1529000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1522800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3053,14 +3211,17 @@
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
+      <c r="O66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,29 +3424,32 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-210900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-204700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-186500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-174400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-172600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-170400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3291,14 +3465,17 @@
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,29 +3612,32 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E76" s="3">
         <v>427800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>578200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>906400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>858100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>845100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3467,14 +3653,17 @@
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
+      <c r="O76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,29 +3826,30 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E83" s="3">
         <v>23900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3666,14 +3865,17 @@
       <c r="N83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,29 +4106,32 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E89" s="3">
         <v>30300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3930,14 +4147,17 @@
       <c r="N89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,29 +4174,30 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3992,14 +4213,17 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,29 +4313,32 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1121000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4124,14 +4354,17 @@
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,29 +4567,32 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-399900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-157900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1123100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>463600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4362,14 +4608,17 @@
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,29 +4661,32 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-392800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1248600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1123400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>459700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4450,10 +4702,13 @@
       <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>152100</v>
+      </c>
+      <c r="F8" s="3">
         <v>133900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>127300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>119700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>111400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>103800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>93700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>87500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>81200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>76900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>72800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>69300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>65300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>61900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>54500</v>
+      </c>
+      <c r="F9" s="3">
         <v>47200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>46800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>44400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>43500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>43100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>39500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>38600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>37100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>35200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>34700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>33000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>30900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>29900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>97600</v>
+      </c>
+      <c r="F10" s="3">
         <v>86700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>80500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>75300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>67900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>60700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>54200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>48900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>44100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>41700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>38100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>36300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>34400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>32000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F12" s="3">
         <v>37000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>37200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>36200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>29900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>27100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>22400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>20700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>19700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>15100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>19500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>15300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>16600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>14600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,46 +1037,52 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>178100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>142700</v>
+      </c>
+      <c r="F17" s="3">
         <v>141300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>140900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>129800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>113100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>106400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>93800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>86100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>87900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>75100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>85300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>75600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>73000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>68300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-10100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-12500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-6300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,82 +1277,90 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-4100</v>
       </c>
       <c r="M20" s="3">
         <v>-3700</v>
       </c>
       <c r="N20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="P20" s="3">
         <v>6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F21" s="3">
         <v>19100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>11200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>13300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>20600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>19200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>20900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1306,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1318,137 +1397,155 @@
         <v>2100</v>
       </c>
       <c r="F22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>13600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3">
         <v>9400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-14800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-16200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-10400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-18100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-12100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-16900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-18100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-12100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-16900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4100</v>
       </c>
       <c r="M32" s="3">
         <v>3700</v>
       </c>
       <c r="N32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P32" s="3">
         <v>-6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-18100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-12100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-16900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-18100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-12100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-16900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,35 +2225,37 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F41" s="3">
         <v>72200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>464800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1713400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>589800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>577200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>560100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2095,29 +2268,35 @@
       <c r="O41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>723500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>800500</v>
+      </c>
+      <c r="F42" s="3">
         <v>1094000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1090400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2130,11 +2309,11 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2148,35 +2327,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>52400</v>
+      </c>
+      <c r="F43" s="3">
         <v>44100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>42500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>39600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>42600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>33900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>28900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2189,14 +2374,20 @@
       <c r="O43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,35 +2433,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F45" s="3">
         <v>20900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>18000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>18300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2283,41 +2480,47 @@
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>946600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>908400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1231100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1611900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1770100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>642800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>629100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>607300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2330,14 +2533,20 @@
       <c r="O46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,35 +2592,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>427700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>271000</v>
+      </c>
+      <c r="F48" s="3">
         <v>268400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>259400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>249600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>241100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>243100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>242700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2424,41 +2639,47 @@
       <c r="O48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>432600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>437700</v>
+      </c>
+      <c r="F49" s="3">
         <v>84400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>78600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>75100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>75400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>37200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>37200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2471,14 +2692,20 @@
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,35 +2804,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F52" s="3">
         <v>6800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2612,14 +2851,20 @@
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,35 +2910,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1815900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1623700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1590700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1956800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2101000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>965800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>915400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>893300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2706,14 +2957,20 @@
       <c r="O54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +3009,37 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F57" s="3">
         <v>17800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>16300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>12700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>16200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>15100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2791,14 +3052,20 @@
       <c r="O57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,35 +3111,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F59" s="3">
         <v>56500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>46100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>45600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>44900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>39200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>30900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2885,41 +3158,47 @@
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>98800</v>
+      </c>
+      <c r="F60" s="3">
         <v>74200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>62500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>58200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>57600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>55400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>46000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2932,32 +3211,38 @@
       <c r="O60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1470300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1468400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1466500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1464500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1462700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2985,35 +3270,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3026,14 +3317,20 @@
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,35 +3482,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1764800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1593500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1542400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1529000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1522800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>59400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>57300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>48200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3214,14 +3529,20 @@
       <c r="O66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3768,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-210800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-200800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-210900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-204700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-186500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-174400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-172600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-170400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3468,14 +3815,20 @@
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,35 +3980,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F76" s="3">
         <v>48300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>427800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>578200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>906400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>858100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>845100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3656,14 +4027,20 @@
       <c r="O76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-18100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-12100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-16900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,35 +4222,37 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F83" s="3">
         <v>24300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>23900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>23500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>22400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>21600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>21000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3868,14 +4265,20 @@
       <c r="O83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,35 +4536,41 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>54400</v>
+      </c>
+      <c r="F89" s="3">
         <v>45400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>30300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>32700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>40200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>40400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>19800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4150,14 +4583,20 @@
       <c r="O89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,35 +4614,37 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-2300</v>
+        <v>-1100</v>
       </c>
       <c r="F91" s="3">
         <v>-2100</v>
       </c>
       <c r="G91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4216,14 +4657,20 @@
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,35 +4769,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-38200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1121000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-32400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-31500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-23700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4357,14 +4816,20 @@
       <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,35 +5055,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-399900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-157900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1123100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>463600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4611,14 +5102,20 @@
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,35 +5161,41 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-392800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1248600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1123400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>12500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>17200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>459700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4705,10 +5208,16 @@
       <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
@@ -4622,25 +4622,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-31000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1100</v>
+        <v>-31900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2100</v>
+        <v>-33400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
+        <v>-29300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2100</v>
+        <v>-32700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1600</v>
+        <v>-26700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300</v>
+        <v>-26000</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>

--- a/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>DOCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>165100</v>
+      </c>
+      <c r="F8" s="3">
         <v>163000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>152100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>133900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>127300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>119700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>111400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>103800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>93700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>87500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>81200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>76900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>72800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>69300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>65300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>61900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F9" s="3">
         <v>63400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>54500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>47800</v>
+      </c>
+      <c r="I9" s="3">
         <v>47200</v>
       </c>
-      <c r="G9" s="3">
-        <v>46800</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>44400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>43500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>43100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>39500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>38600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>37100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>35200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>34700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>33000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>30900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>29900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>93200</v>
+      </c>
+      <c r="F10" s="3">
         <v>99600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>97600</v>
       </c>
-      <c r="F10" s="3">
-        <v>86700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>80500</v>
-      </c>
       <c r="H10" s="3">
+        <v>86100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>80100</v>
+      </c>
+      <c r="J10" s="3">
         <v>75300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>67900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>60700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>54200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>48900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>44100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>41700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>38100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>36300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>34400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>32000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F12" s="3">
         <v>39400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>30200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>37000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>37200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>36200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>29900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>27100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>22400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>20700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>19700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>15100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>19500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>15300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>16600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>14600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1062,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>20900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>198200</v>
+      </c>
+      <c r="F17" s="3">
         <v>178100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>142700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>141800</v>
+      </c>
+      <c r="I17" s="3">
         <v>141300</v>
       </c>
-      <c r="G17" s="3">
-        <v>140900</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>129800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>113100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>106400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>93800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>86100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>87900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>75100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>85300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>75600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>73000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>68300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>67900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>9400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-13600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-10100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-12500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-7700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,94 +1345,102 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F20" s="3">
         <v>4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-4100</v>
       </c>
       <c r="O20" s="3">
         <v>-3700</v>
       </c>
       <c r="P20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="R20" s="3">
         <v>6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F21" s="3">
         <v>17600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>38300</v>
       </c>
-      <c r="F21" s="3">
-        <v>19100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>11200</v>
-      </c>
       <c r="H21" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J21" s="3">
         <v>13300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>20600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>19200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>20900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1385,8 +1459,14 @@
       <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1474,7 @@
         <v>2100</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F22" s="3">
         <v>2100</v>
@@ -1403,149 +1483,167 @@
         <v>2100</v>
       </c>
       <c r="H22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>13600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3">
         <v>9400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>10500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-14800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-11200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-16200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-10400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-8500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>10100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-18100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-12100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-13900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-16900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-10600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>10100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-18100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-12100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-13900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-16900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-10600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-8700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>4100</v>
       </c>
       <c r="O32" s="3">
         <v>3700</v>
       </c>
       <c r="P32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R32" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>10100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-18100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-12100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-13900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-16900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-10600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>10100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-18100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-12100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-13900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-16900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-10600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2399,43 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F41" s="3">
         <v>140800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>72200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>464800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1713400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>589800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>577200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>560100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2274,35 +2448,41 @@
       <c r="Q41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>430500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>591700</v>
+      </c>
+      <c r="F42" s="3">
         <v>723500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>800500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1094000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1090400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2315,11 +2495,11 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2333,41 +2513,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F43" s="3">
         <v>53800</v>
       </c>
-      <c r="E43" s="3">
-        <v>52400</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>59800</v>
+      </c>
+      <c r="H43" s="3">
         <v>44100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>42500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>39600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>42600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>33900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>28900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2380,14 +2566,20 @@
       <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,41 +2631,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28500</v>
+        <v>34500</v>
       </c>
       <c r="E45" s="3">
-        <v>31300</v>
+        <v>31100</v>
       </c>
       <c r="F45" s="3">
+        <v>27900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="H45" s="3">
         <v>20900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>17100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>10400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>18300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2486,47 +2684,53 @@
       <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>946600</v>
+        <v>642100</v>
       </c>
       <c r="E46" s="3">
+        <v>698600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>946000</v>
+      </c>
+      <c r="G46" s="3">
         <v>908400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1231100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1611900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1770100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>642800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>629100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>607300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2539,14 +2743,20 @@
       <c r="Q46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,41 +2808,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>427700</v>
+        <v>437400</v>
       </c>
       <c r="E48" s="3">
+        <v>463500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>426900</v>
+      </c>
+      <c r="G48" s="3">
         <v>271000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>268400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>259400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>249600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>241100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>243100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>242700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2645,47 +2861,53 @@
       <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>432600</v>
+        <v>410400</v>
       </c>
       <c r="E49" s="3">
+        <v>414200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>434100</v>
+      </c>
+      <c r="G49" s="3">
         <v>437700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>84400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>78600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>75100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>75400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>37200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>37200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2698,14 +2920,20 @@
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,41 +3044,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="E52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G52" s="3">
         <v>6600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2857,14 +3097,20 @@
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3162,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1815900</v>
+        <v>1497900</v>
       </c>
       <c r="E54" s="3">
+        <v>1584400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1815600</v>
+      </c>
+      <c r="G54" s="3">
         <v>1623700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1590700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1956800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2101000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>965800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>915400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>893300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2963,14 +3215,20 @@
       <c r="Q54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3271,43 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F57" s="3">
         <v>21100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>11800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>17800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>16300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>12700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>12700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>15100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3058,14 +3320,20 @@
       <c r="Q57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,41 +3385,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>143100</v>
+        <v>157700</v>
       </c>
       <c r="E59" s="3">
+        <v>175100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>190300</v>
+      </c>
+      <c r="G59" s="3">
         <v>87000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>56500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>46100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>45600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>44900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>39200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>30900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3164,47 +3438,53 @@
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>164300</v>
+        <v>167300</v>
       </c>
       <c r="E60" s="3">
+        <v>186200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>165500</v>
+      </c>
+      <c r="G60" s="3">
         <v>98800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>74200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>62500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>58200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>57600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>55400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>46000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3217,38 +3497,44 @@
       <c r="Q60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1474000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1472100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1470300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1468400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1466500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1464500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1462700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3276,41 +3562,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>130300</v>
+        <v>124100</v>
       </c>
       <c r="E62" s="3">
+        <v>143700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>132300</v>
+      </c>
+      <c r="G62" s="3">
         <v>26300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3323,14 +3615,20 @@
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3798,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1764800</v>
+        <v>1765500</v>
       </c>
       <c r="E66" s="3">
+        <v>1802100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1768100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1593500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1542400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1529000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1522800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>59400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>57300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>48200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3535,14 +3851,20 @@
       <c r="Q66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +4116,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-210800</v>
+        <v>-266600</v>
       </c>
       <c r="E72" s="3">
+        <v>-245800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-214300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-200800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-210900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-204700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-186500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-174400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-172600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-170400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3821,14 +4169,20 @@
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4352,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51100</v>
+        <v>-267600</v>
       </c>
       <c r="E76" s="3">
+        <v>-217700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>47600</v>
+      </c>
+      <c r="G76" s="3">
         <v>30200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>48300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>427800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>578200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>906400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>858100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>845100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4033,14 +4405,20 @@
       <c r="Q76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>10100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-18100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-12100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-13900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-16900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-10600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,41 +4620,43 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F83" s="3">
         <v>28300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>25600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>24300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>23900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>23500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>22400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>21600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>21000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4271,14 +4669,20 @@
       <c r="Q83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,41 +4970,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F89" s="3">
         <v>65100</v>
       </c>
-      <c r="E89" s="3">
-        <v>54400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>45400</v>
-      </c>
       <c r="G89" s="3">
-        <v>30300</v>
+        <v>53500</v>
       </c>
       <c r="H89" s="3">
+        <v>46100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>30400</v>
+      </c>
+      <c r="J89" s="3">
         <v>32700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>40200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>40400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>19800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4589,14 +5023,20 @@
       <c r="Q89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,41 +5056,43 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-31000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-33400</v>
-      </c>
       <c r="G91" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-29300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-32700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-26700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-26000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4663,14 +5105,20 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,41 +5229,47 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>108000</v>
+      </c>
+      <c r="F94" s="3">
         <v>51600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-40600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-38200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1121000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-32400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-31500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-23700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4822,14 +5282,20 @@
       <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,41 +5547,47 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-264200</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-52800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-399900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-157900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1123100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>463600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
@@ -5108,14 +5600,20 @@
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5125,20 +5623,20 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5167,41 +5665,47 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="F102" s="3">
         <v>116700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-39000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-392800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1248600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1123400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>17200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>459700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
@@ -5214,10 +5718,16 @@
       <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
